--- a/Payments.xlsx
+++ b/Payments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>Amount</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>2022-08-18 16:56:42.876</t>
+  </si>
+  <si>
+    <t>2022-08-18 17:01:26.36</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -642,6 +645,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
